--- a/2.2.4-test/StructureDefinition-no-basis-middlename.xlsx
+++ b/2.2.4-test/StructureDefinition-no-basis-middlename.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
